--- a/Stein Gradients/Experiments/Results Add.xlsx
+++ b/Stein Gradients/Experiments/Results Add.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="65">
   <si>
     <t>model_1</t>
   </si>
@@ -59,6 +59,9 @@
     <t>model_9</t>
   </si>
   <si>
+    <t>model_10</t>
+  </si>
+  <si>
     <t>model_11</t>
   </si>
   <si>
@@ -126,6 +129,21 @@
   </si>
   <si>
     <t>Ensemble of 5 ML estimators</t>
+  </si>
+  <si>
+    <t>model_30</t>
+  </si>
+  <si>
+    <t>model_31</t>
+  </si>
+  <si>
+    <t>model_28</t>
+  </si>
+  <si>
+    <t>model_27</t>
+  </si>
+  <si>
+    <t>model_29</t>
   </si>
   <si>
     <t>experiment_name</t>
@@ -207,12 +225,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A4A4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -251,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -270,6 +294,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,70 +624,70 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="N1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="O1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="R1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="S1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="T1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="U1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="V1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -706,7 +734,7 @@
         <v>0.308</v>
       </c>
       <c r="O2" s="1">
-        <v>0.854</v>
+        <v>0.86</v>
       </c>
       <c r="P2" s="1">
         <v>0.2244</v>
@@ -718,7 +746,7 @@
         <v>1.5593</v>
       </c>
       <c r="S2" s="1">
-        <v>6.7655</v>
+        <v>6.8691</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -765,10 +793,10 @@
         <v>0.32</v>
       </c>
       <c r="N3" s="1">
-        <v>0.32</v>
+        <v>0.319</v>
       </c>
       <c r="O3" s="1">
-        <v>0.866</v>
+        <v>0.862</v>
       </c>
       <c r="P3" s="1">
         <v>0.2226</v>
@@ -777,10 +805,10 @@
         <v>1.5515</v>
       </c>
       <c r="R3" s="1">
-        <v>1.5515</v>
+        <v>1.5532</v>
       </c>
       <c r="S3" s="1">
-        <v>6.7425</v>
+        <v>6.7495</v>
       </c>
       <c r="T3" s="1">
         <v>0.0004</v>
@@ -831,10 +859,10 @@
         <v>0.08</v>
       </c>
       <c r="N4" s="1">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="O4" s="1">
-        <v>0.852</v>
+        <v>0.86</v>
       </c>
       <c r="P4" s="1">
         <v>0.1287</v>
@@ -843,10 +871,10 @@
         <v>0.367</v>
       </c>
       <c r="R4" s="1">
-        <v>0.367</v>
+        <v>0.6298</v>
       </c>
       <c r="S4" s="1">
-        <v>4.7743</v>
+        <v>4.7624</v>
       </c>
       <c r="T4" s="1">
         <v>0.0926</v>
@@ -897,10 +925,10 @@
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>0.3</v>
+        <v>0.304</v>
       </c>
       <c r="O5" s="1">
-        <v>0.852</v>
+        <v>0.857</v>
       </c>
       <c r="P5" s="1">
         <v>0.2082</v>
@@ -909,10 +937,10 @@
         <v>1.4724</v>
       </c>
       <c r="R5" s="1">
-        <v>1.4724</v>
+        <v>1.4839</v>
       </c>
       <c r="S5" s="1">
-        <v>6.8443</v>
+        <v>6.9174</v>
       </c>
       <c r="T5" s="1">
         <v>0.0007</v>
@@ -963,10 +991,10 @@
         <v>0.231</v>
       </c>
       <c r="N6" s="1">
-        <v>0.231</v>
+        <v>0.232</v>
       </c>
       <c r="O6" s="1">
-        <v>0.844</v>
+        <v>0.849</v>
       </c>
       <c r="P6" s="1">
         <v>0.1149</v>
@@ -975,10 +1003,10 @@
         <v>1.2683</v>
       </c>
       <c r="R6" s="1">
-        <v>1.2683</v>
+        <v>1.2712</v>
       </c>
       <c r="S6" s="1">
-        <v>8.4498</v>
+        <v>8.3323</v>
       </c>
       <c r="T6" s="1">
         <v>0.0013</v>
@@ -1030,7 +1058,7 @@
         <v>0.333</v>
       </c>
       <c r="O7" s="1">
-        <v>0.85</v>
+        <v>0.857</v>
       </c>
       <c r="P7" s="1">
         <v>0.2129</v>
@@ -1042,7 +1070,7 @@
         <v>1.6454</v>
       </c>
       <c r="S7" s="1">
-        <v>7.0478</v>
+        <v>7.095</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -1087,10 +1115,10 @@
         <v>0.348</v>
       </c>
       <c r="N8" s="1">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O8" s="1">
-        <v>0.863</v>
+        <v>0.86</v>
       </c>
       <c r="P8" s="1">
         <v>0.2006</v>
@@ -1099,10 +1127,10 @@
         <v>1.7025</v>
       </c>
       <c r="R8" s="1">
-        <v>1.7025</v>
+        <v>1.7042</v>
       </c>
       <c r="S8" s="1">
-        <v>6.7206</v>
+        <v>6.7062</v>
       </c>
       <c r="T8" s="1">
         <v>0.0003</v>
@@ -1151,10 +1179,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>0.07000000000000001</v>
+        <v>0.141</v>
       </c>
       <c r="O9" s="1">
-        <v>0.853</v>
+        <v>0.849</v>
       </c>
       <c r="P9" s="1">
         <v>0.1295</v>
@@ -1163,10 +1191,10 @@
         <v>0.3375</v>
       </c>
       <c r="R9" s="1">
-        <v>0.3375</v>
+        <v>0.6235000000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>4.9735</v>
+        <v>4.9901</v>
       </c>
       <c r="T9" s="1">
         <v>0.1064</v>
@@ -1218,7 +1246,7 @@
         <v>0.298</v>
       </c>
       <c r="O10" s="1">
-        <v>0.854</v>
+        <v>0.86</v>
       </c>
       <c r="P10" s="1">
         <v>0.2057</v>
@@ -1227,10 +1255,10 @@
         <v>1.4118</v>
       </c>
       <c r="R10" s="1">
-        <v>1.4118</v>
+        <v>1.4163</v>
       </c>
       <c r="S10" s="1">
-        <v>6.7363</v>
+        <v>6.8834</v>
       </c>
       <c r="T10" s="1">
         <v>0.0005</v>
@@ -1241,394 +1269,376 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
         <v>100</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="E11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J11" s="3">
+        <v>146</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>100</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
         <v>200</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="1">
+      <c r="K12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="5">
         <v>0.217</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N12" s="5">
         <v>0.217</v>
       </c>
-      <c r="O11" s="1">
-        <v>0.841</v>
-      </c>
-      <c r="P11" s="1">
+      <c r="O12" s="5">
+        <v>0.837</v>
+      </c>
+      <c r="P12" s="5">
         <v>0.0989</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q12" s="5">
         <v>1.1583</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R12" s="5">
         <v>1.1583</v>
       </c>
-      <c r="S11" s="1">
-        <v>8.410399999999999</v>
-      </c>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="3" t="s">
+      <c r="S12" s="5">
+        <v>8.4032</v>
+      </c>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
         <v>100</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
-        <v>5</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="E13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7">
+        <v>5</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
         <v>200</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="K13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="7">
         <v>0.236</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N13" s="7">
         <v>0.236</v>
       </c>
-      <c r="O12" s="3">
-        <v>0.849</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="O13" s="7">
+        <v>0.839</v>
+      </c>
+      <c r="P13" s="7">
         <v>0.1006</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q13" s="7">
         <v>1.2534</v>
       </c>
-      <c r="R12" s="3">
-        <v>1.2534</v>
-      </c>
-      <c r="S12" s="3">
-        <v>9.091699999999999</v>
-      </c>
-      <c r="T12" s="3">
+      <c r="R13" s="7">
+        <v>1.2539</v>
+      </c>
+      <c r="S13" s="7">
+        <v>8.8756</v>
+      </c>
+      <c r="T13" s="7">
         <v>0.216</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="5" t="s">
+      <c r="U13" s="7">
+        <v>0</v>
+      </c>
+      <c r="V13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
         <v>100</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5">
-        <v>5</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5">
+      <c r="E14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7">
+        <v>5</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
         <v>200</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="5">
+      <c r="K14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="7">
         <v>0.212</v>
       </c>
-      <c r="N13" s="5">
-        <v>0.212</v>
-      </c>
-      <c r="O13" s="5">
-        <v>0.838</v>
-      </c>
-      <c r="P13" s="5">
+      <c r="N14" s="7">
+        <v>0.214</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0.828</v>
+      </c>
+      <c r="P14" s="7">
         <v>0.1011</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q14" s="7">
         <v>1.1213</v>
       </c>
-      <c r="R13" s="5">
-        <v>1.1213</v>
-      </c>
-      <c r="S13" s="5">
-        <v>8.404999999999999</v>
-      </c>
-      <c r="T13" s="5">
+      <c r="R14" s="7">
+        <v>1.122</v>
+      </c>
+      <c r="S14" s="7">
+        <v>8.299200000000001</v>
+      </c>
+      <c r="T14" s="7">
         <v>0.2121</v>
       </c>
-      <c r="U13" s="5">
-        <v>0</v>
-      </c>
-      <c r="V13" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="U14" s="7">
+        <v>0</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
         <v>100</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5">
-        <v>5</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="5">
+      <c r="E15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
+        <v>5</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="7">
         <v>500</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J15" s="7">
         <v>200</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="5">
+      <c r="K15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="7">
         <v>0.265</v>
       </c>
-      <c r="N14" s="5">
-        <v>0.265</v>
-      </c>
-      <c r="O14" s="5">
-        <v>0.853</v>
-      </c>
-      <c r="P14" s="5">
+      <c r="N15" s="7">
+        <v>0.267</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0.856</v>
+      </c>
+      <c r="P15" s="7">
         <v>0.1237</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q15" s="7">
         <v>1.5141</v>
       </c>
-      <c r="R14" s="5">
-        <v>1.5141</v>
-      </c>
-      <c r="S14" s="5">
-        <v>8.7925</v>
-      </c>
-      <c r="T14" s="5">
+      <c r="R15" s="7">
+        <v>1.5159</v>
+      </c>
+      <c r="S15" s="7">
+        <v>8.959899999999999</v>
+      </c>
+      <c r="T15" s="7">
         <v>0.0017</v>
       </c>
-      <c r="U14" s="5">
-        <v>0</v>
-      </c>
-      <c r="V14" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="U15" s="7">
+        <v>0</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
         <v>100</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5">
-        <v>5</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="5">
+      <c r="E16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7">
+        <v>5</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
         <v>500</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J16" s="7">
         <v>200</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="5">
+      <c r="K16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="7">
         <v>0.208</v>
       </c>
-      <c r="N15" s="5">
-        <v>0.208</v>
-      </c>
-      <c r="O15" s="5">
-        <v>0.835</v>
-      </c>
-      <c r="P15" s="5">
+      <c r="N16" s="7">
+        <v>0.218</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0.842</v>
+      </c>
+      <c r="P16" s="7">
         <v>0.0858</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q16" s="7">
         <v>1.1387</v>
       </c>
-      <c r="R15" s="5">
-        <v>1.1387</v>
-      </c>
-      <c r="S15" s="5">
-        <v>8.407</v>
-      </c>
-      <c r="T15" s="5">
+      <c r="R16" s="7">
+        <v>1.1956</v>
+      </c>
+      <c r="S16" s="7">
+        <v>8.565099999999999</v>
+      </c>
+      <c r="T16" s="7">
         <v>0.0456</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U16" s="7">
         <v>0.0001</v>
       </c>
-      <c r="V15" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
-        <v>100</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5">
-        <v>5</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5">
-        <v>200</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M16" s="5">
-        <v>0.206</v>
-      </c>
-      <c r="N16" s="5">
-        <v>0.206</v>
-      </c>
-      <c r="O16" s="5">
-        <v>0.843</v>
-      </c>
-      <c r="P16" s="5">
-        <v>0.1061</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>1.1768</v>
-      </c>
-      <c r="R16" s="5">
-        <v>1.1768</v>
-      </c>
-      <c r="S16" s="5">
-        <v>8.5905</v>
-      </c>
-      <c r="T16" s="5">
-        <v>0.2041</v>
-      </c>
-      <c r="U16" s="5">
-        <v>0</v>
-      </c>
-      <c r="V16" s="5"/>
+      <c r="V16" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
@@ -1660,34 +1670,34 @@
         <v>200</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="1">
-        <v>0.273</v>
+        <v>0.206</v>
       </c>
       <c r="N17" s="1">
-        <v>0.273</v>
+        <v>0.207</v>
       </c>
       <c r="O17" s="1">
-        <v>0.866</v>
+        <v>0.84</v>
       </c>
       <c r="P17" s="1">
-        <v>8.882400000000001</v>
+        <v>0.1061</v>
       </c>
       <c r="Q17" s="1">
-        <v>24.2387</v>
+        <v>1.1768</v>
       </c>
       <c r="R17" s="1">
-        <v>24.2387</v>
+        <v>1.1752</v>
       </c>
       <c r="S17" s="1">
-        <v>9.0037</v>
+        <v>8.5298</v>
       </c>
       <c r="T17" s="1">
-        <v>0.07000000000000001</v>
+        <v>0.2041</v>
       </c>
       <c r="U17" s="1">
         <v>0</v>
@@ -1718,40 +1728,40 @@
         <v>5</v>
       </c>
       <c r="I18" s="1">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1">
         <v>200</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="1">
-        <v>0.227</v>
+        <v>0.273</v>
       </c>
       <c r="N18" s="1">
-        <v>0.227</v>
+        <v>0.273</v>
       </c>
       <c r="O18" s="1">
-        <v>0.846</v>
+        <v>0.87</v>
       </c>
       <c r="P18" s="1">
-        <v>0.1075</v>
+        <v>8.882400000000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>1.2142</v>
+        <v>24.2387</v>
       </c>
       <c r="R18" s="1">
-        <v>1.2142</v>
+        <v>24.2294</v>
       </c>
       <c r="S18" s="1">
-        <v>8.6073</v>
+        <v>9.097200000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.0017</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U18" s="1">
         <v>0</v>
@@ -1788,37 +1798,37 @@
         <v>200</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M19" s="1">
-        <v>0.45</v>
+        <v>0.227</v>
       </c>
       <c r="N19" s="1">
-        <v>0.45</v>
+        <v>0.226</v>
       </c>
       <c r="O19" s="1">
-        <v>0.878</v>
+        <v>0.848</v>
       </c>
       <c r="P19" s="1">
-        <v>1.2318</v>
+        <v>0.1075</v>
       </c>
       <c r="Q19" s="1">
-        <v>3.3416</v>
+        <v>1.2142</v>
       </c>
       <c r="R19" s="1">
-        <v>3.3416</v>
+        <v>1.2156</v>
       </c>
       <c r="S19" s="1">
-        <v>6.5794</v>
+        <v>8.6508</v>
       </c>
       <c r="T19" s="1">
-        <v>3.4905</v>
+        <v>0.0017</v>
       </c>
       <c r="U19" s="1">
-        <v>0.0065</v>
+        <v>0</v>
       </c>
       <c r="V19" s="1"/>
     </row>
@@ -1846,309 +1856,309 @@
         <v>5</v>
       </c>
       <c r="I20" s="1">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="J20" s="1">
         <v>200</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.701</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.891</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1.2318</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>3.3416</v>
+      </c>
+      <c r="R20" s="1">
+        <v>10.6916</v>
+      </c>
+      <c r="S20" s="1">
+        <v>6.6866</v>
+      </c>
+      <c r="T20" s="1">
+        <v>3.4905</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0.0065</v>
+      </c>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
+        <v>100</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9">
+        <v>5</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="9">
+        <v>1</v>
+      </c>
+      <c r="J21" s="9">
+        <v>200</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="9">
         <v>0.205</v>
       </c>
-      <c r="N20" s="1">
-        <v>0.205</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0.836</v>
-      </c>
-      <c r="P20" s="1">
+      <c r="N21" s="9">
+        <v>0.206</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0.845</v>
+      </c>
+      <c r="P21" s="9">
         <v>0.1144</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q21" s="9">
         <v>1.1569</v>
       </c>
-      <c r="R20" s="1">
-        <v>1.1569</v>
-      </c>
-      <c r="S20" s="1">
-        <v>8.3744</v>
-      </c>
-      <c r="T20" s="1">
+      <c r="R21" s="9">
+        <v>1.1594</v>
+      </c>
+      <c r="S21" s="9">
+        <v>8.490600000000001</v>
+      </c>
+      <c r="T21" s="9">
         <v>0.2091</v>
       </c>
-      <c r="U20" s="1">
-        <v>0</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="7" t="s">
+      <c r="U21" s="9">
+        <v>0</v>
+      </c>
+      <c r="V21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7">
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9">
         <v>100</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7">
-        <v>5</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1</v>
-      </c>
-      <c r="J21" s="7">
+      <c r="E22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9">
+        <v>5</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="9">
+        <v>1</v>
+      </c>
+      <c r="J22" s="9">
         <v>200</v>
       </c>
-      <c r="K21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="7">
+      <c r="K22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="9">
         <v>0.327</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N22" s="9">
         <v>0.327</v>
       </c>
-      <c r="O21" s="7">
-        <v>0.849</v>
-      </c>
-      <c r="P21" s="7">
+      <c r="O22" s="9">
+        <v>0.847</v>
+      </c>
+      <c r="P22" s="9">
         <v>0.09810000000000001</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q22" s="9">
         <v>2.0737</v>
       </c>
-      <c r="R21" s="7">
-        <v>2.0737</v>
-      </c>
-      <c r="S21" s="7">
-        <v>11.3823</v>
-      </c>
-      <c r="T21" s="7">
+      <c r="R22" s="9">
+        <v>2.0766</v>
+      </c>
+      <c r="S22" s="9">
+        <v>11.2296</v>
+      </c>
+      <c r="T22" s="9">
         <v>0.3696</v>
       </c>
-      <c r="U21" s="7">
-        <v>0</v>
-      </c>
-      <c r="V21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="U22" s="9">
+        <v>0</v>
+      </c>
+      <c r="V22" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9">
         <v>100</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7">
-        <v>5</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="7">
+      <c r="E23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9">
+        <v>5</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="9">
         <v>500</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J23" s="9">
         <v>200</v>
       </c>
-      <c r="K22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="7">
+      <c r="K23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="9">
         <v>0.232</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N23" s="9">
         <v>0.232</v>
       </c>
-      <c r="O22" s="7">
-        <v>0.855</v>
-      </c>
-      <c r="P22" s="7">
+      <c r="O23" s="9">
+        <v>0.848</v>
+      </c>
+      <c r="P23" s="9">
         <v>0.108</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="Q23" s="9">
         <v>1.2517</v>
       </c>
-      <c r="R22" s="7">
-        <v>1.2517</v>
-      </c>
-      <c r="S22" s="7">
-        <v>8.9907</v>
-      </c>
-      <c r="T22" s="7">
+      <c r="R23" s="9">
+        <v>1.2523</v>
+      </c>
+      <c r="S23" s="9">
+        <v>8.837999999999999</v>
+      </c>
+      <c r="T23" s="9">
         <v>0.0018</v>
       </c>
-      <c r="U22" s="7">
-        <v>0</v>
-      </c>
-      <c r="V22" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7">
+      <c r="U23" s="9">
+        <v>0</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9">
         <v>100</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7">
-        <v>5</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="7">
+      <c r="E24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9">
+        <v>5</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="9">
         <v>500</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J24" s="9">
         <v>200</v>
       </c>
-      <c r="K23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="K24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="9">
         <v>0.312</v>
       </c>
-      <c r="N23" s="7">
-        <v>0.312</v>
-      </c>
-      <c r="O23" s="7">
-        <v>0.846</v>
-      </c>
-      <c r="P23" s="7">
+      <c r="N24" s="9">
+        <v>0.313</v>
+      </c>
+      <c r="O24" s="9">
+        <v>0.843</v>
+      </c>
+      <c r="P24" s="9">
         <v>0.0934</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q24" s="9">
         <v>2.0256</v>
       </c>
-      <c r="R23" s="7">
-        <v>2.0256</v>
-      </c>
-      <c r="S23" s="7">
-        <v>11.3549</v>
-      </c>
-      <c r="T23" s="7">
+      <c r="R24" s="9">
+        <v>2.0357</v>
+      </c>
+      <c r="S24" s="9">
+        <v>11.3588</v>
+      </c>
+      <c r="T24" s="9">
         <v>0.0061</v>
       </c>
-      <c r="U23" s="7">
-        <v>0</v>
-      </c>
-      <c r="V23" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="7">
-        <v>100</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7">
-        <v>5</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7">
-        <v>200</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0.039</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0.039</v>
-      </c>
-      <c r="O24" s="7">
-        <v>0.842</v>
-      </c>
-      <c r="P24" s="7">
-        <v>0.0587</v>
-      </c>
-      <c r="Q24" s="7">
-        <v>0.197</v>
-      </c>
-      <c r="R24" s="7">
-        <v>0.197</v>
-      </c>
-      <c r="S24" s="7">
-        <v>6.3428</v>
-      </c>
-      <c r="T24" s="7">
-        <v>0.015</v>
-      </c>
-      <c r="U24" s="7">
-        <v>0.015</v>
-      </c>
-      <c r="V24" s="7"/>
+      <c r="U24" s="9">
+        <v>0</v>
+      </c>
+      <c r="V24" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
@@ -2171,10 +2181,10 @@
         <v>5</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I25" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1">
         <v>200</v>
@@ -2183,38 +2193,36 @@
         <v>3</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M25" s="1">
-        <v>0.314</v>
+        <v>0.039</v>
       </c>
       <c r="N25" s="1">
-        <v>0.314</v>
+        <v>0.098</v>
       </c>
       <c r="O25" s="1">
-        <v>0.844</v>
+        <v>0.839</v>
       </c>
       <c r="P25" s="1">
-        <v>0.09420000000000001</v>
+        <v>0.0587</v>
       </c>
       <c r="Q25" s="1">
-        <v>2.0388</v>
+        <v>0.197</v>
       </c>
       <c r="R25" s="1">
-        <v>2.0388</v>
+        <v>0.4618</v>
       </c>
       <c r="S25" s="1">
-        <v>11.3951</v>
+        <v>6.4193</v>
       </c>
       <c r="T25" s="1">
-        <v>0.0048</v>
+        <v>0.015</v>
       </c>
       <c r="U25" s="1">
-        <v>0</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>0.015</v>
+      </c>
+      <c r="V25" s="1"/>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
@@ -2240,7 +2248,7 @@
         <v>5</v>
       </c>
       <c r="I26" s="1">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="J26" s="1">
         <v>200</v>
@@ -2252,34 +2260,34 @@
         <v>5</v>
       </c>
       <c r="M26" s="1">
-        <v>0.318</v>
+        <v>0.314</v>
       </c>
       <c r="N26" s="1">
-        <v>0.318</v>
+        <v>0.317</v>
       </c>
       <c r="O26" s="1">
-        <v>0.846</v>
+        <v>0.853</v>
       </c>
       <c r="P26" s="1">
-        <v>0.0945</v>
+        <v>0.09420000000000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>2.0596</v>
+        <v>2.0388</v>
       </c>
       <c r="R26" s="1">
-        <v>2.0596</v>
+        <v>2.0647</v>
       </c>
       <c r="S26" s="1">
-        <v>11.339</v>
+        <v>11.5642</v>
       </c>
       <c r="T26" s="1">
-        <v>0.0056</v>
+        <v>0.0048</v>
       </c>
       <c r="U26" s="1">
         <v>0</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2295,99 +2303,495 @@
       <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1">
+        <v>750</v>
+      </c>
       <c r="J27" s="1">
         <v>200</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="K27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="M27" s="1">
+        <v>0.318</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.321</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.844</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.0945</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>2.0596</v>
+      </c>
+      <c r="R27" s="1">
+        <v>2.0779</v>
+      </c>
+      <c r="S27" s="1">
+        <v>11.2494</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0.0056</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="11">
+        <v>100</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11">
+        <v>200</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11">
         <v>0.21</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N28" s="11">
         <v>0.21</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O28" s="11">
+        <v>0.839</v>
+      </c>
+      <c r="P28" s="11">
+        <v>0.1242</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>1.7621</v>
+      </c>
+      <c r="R28" s="11">
+        <v>1.7621</v>
+      </c>
+      <c r="S28" s="11">
+        <v>14.7399</v>
+      </c>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="11">
+        <v>100</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11">
+        <v>5</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11">
+        <v>200</v>
+      </c>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11">
+        <v>0.032</v>
+      </c>
+      <c r="N29" s="11">
+        <v>0.078</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0.833</v>
+      </c>
+      <c r="P29" s="11">
+        <v>0.0525</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>0.1982</v>
+      </c>
+      <c r="R29" s="11">
+        <v>0.549</v>
+      </c>
+      <c r="S29" s="11">
+        <v>10.8191</v>
+      </c>
+      <c r="T29" s="11">
+        <v>0.0716</v>
+      </c>
+      <c r="U29" s="11">
+        <v>0.0716</v>
+      </c>
+      <c r="V29" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="9">
+        <v>100</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9">
+        <v>5</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="9">
+        <v>1</v>
+      </c>
+      <c r="J30" s="9">
+        <v>200</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0.239</v>
+      </c>
+      <c r="N30" s="9">
+        <v>0.238</v>
+      </c>
+      <c r="O30" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="P30" s="9">
+        <v>0.1115</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>1.2891</v>
+      </c>
+      <c r="R30" s="9">
+        <v>1.2886</v>
+      </c>
+      <c r="S30" s="9">
+        <v>8.6487</v>
+      </c>
+      <c r="T30" s="9">
+        <v>0.1523</v>
+      </c>
+      <c r="U30" s="9">
+        <v>0</v>
+      </c>
+      <c r="V30" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="9">
+        <v>100</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9">
+        <v>5</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="9">
+        <v>1</v>
+      </c>
+      <c r="J31" s="9">
+        <v>200</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0.327</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0.327</v>
+      </c>
+      <c r="O31" s="9">
         <v>0.846</v>
       </c>
-      <c r="P27" s="1">
-        <v>0.1242</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>1.7621</v>
-      </c>
-      <c r="R27" s="1">
-        <v>1.7621</v>
-      </c>
-      <c r="S27" s="1">
-        <v>14.9924</v>
-      </c>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="9">
+      <c r="P31" s="9">
+        <v>0.09810000000000001</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>2.0722</v>
+      </c>
+      <c r="R31" s="9">
+        <v>2.0728</v>
+      </c>
+      <c r="S31" s="9">
+        <v>11.3081</v>
+      </c>
+      <c r="T31" s="9">
+        <v>0.2361</v>
+      </c>
+      <c r="U31" s="9">
+        <v>0</v>
+      </c>
+      <c r="V31" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="9">
         <v>100</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9">
-        <v>5</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9">
+      <c r="E32" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9">
+        <v>5</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="9">
+        <v>500</v>
+      </c>
+      <c r="J32" s="9">
         <v>200</v>
       </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9">
-        <v>0.032</v>
-      </c>
-      <c r="N28" s="9">
-        <v>0.032</v>
-      </c>
-      <c r="O28" s="9">
+      <c r="K32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="9">
+        <v>0.244</v>
+      </c>
+      <c r="N32" s="9">
+        <v>0.244</v>
+      </c>
+      <c r="O32" s="9">
+        <v>0.857</v>
+      </c>
+      <c r="P32" s="9">
+        <v>0.1013</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>1.3275</v>
+      </c>
+      <c r="R32" s="9">
+        <v>1.3287</v>
+      </c>
+      <c r="S32" s="9">
+        <v>9.316000000000001</v>
+      </c>
+      <c r="T32" s="9">
+        <v>0.0009</v>
+      </c>
+      <c r="U32" s="9">
+        <v>0</v>
+      </c>
+      <c r="V32" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="9">
+        <v>100</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9">
+        <v>5</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="9">
+        <v>500</v>
+      </c>
+      <c r="J33" s="9">
+        <v>200</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0.319</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0.319</v>
+      </c>
+      <c r="O33" s="9">
         <v>0.839</v>
       </c>
-      <c r="P28" s="9">
-        <v>0.0525</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>0.1982</v>
-      </c>
-      <c r="R28" s="9">
-        <v>0.1982</v>
-      </c>
-      <c r="S28" s="9">
-        <v>10.6791</v>
-      </c>
-      <c r="T28" s="9">
-        <v>0.0716</v>
-      </c>
-      <c r="U28" s="9">
-        <v>0.0716</v>
-      </c>
-      <c r="V28" s="9" t="s">
-        <v>36</v>
+      <c r="P33" s="9">
+        <v>0.09660000000000001</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>2.0707</v>
+      </c>
+      <c r="R33" s="9">
+        <v>2.0742</v>
+      </c>
+      <c r="S33" s="9">
+        <v>11.2989</v>
+      </c>
+      <c r="T33" s="9">
+        <v>0.0031</v>
+      </c>
+      <c r="U33" s="9">
+        <v>0</v>
+      </c>
+      <c r="V33" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="9">
+        <v>100</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9">
+        <v>5</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J34" s="9">
+        <v>200</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M34" s="9">
+        <v>0.311</v>
+      </c>
+      <c r="N34" s="9">
+        <v>0.313</v>
+      </c>
+      <c r="O34" s="9">
+        <v>0.84</v>
+      </c>
+      <c r="P34" s="9">
+        <v>0.0964</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>2.0731</v>
+      </c>
+      <c r="R34" s="9">
+        <v>2.0794</v>
+      </c>
+      <c r="S34" s="9">
+        <v>11.2929</v>
+      </c>
+      <c r="T34" s="9">
+        <v>0.0025</v>
+      </c>
+      <c r="U34" s="9">
+        <v>0</v>
+      </c>
+      <c r="V34" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2397,7 +2801,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2423,52 +2827,52 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="O1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="P1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2497,7 +2901,7 @@
         <v>0.308</v>
       </c>
       <c r="I2" s="1">
-        <v>0.854</v>
+        <v>0.86</v>
       </c>
       <c r="J2" s="1">
         <v>0.2244</v>
@@ -2509,7 +2913,7 @@
         <v>1.5593</v>
       </c>
       <c r="M2" s="1">
-        <v>6.7655</v>
+        <v>6.8691</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -2538,10 +2942,10 @@
         <v>0.32</v>
       </c>
       <c r="H3" s="1">
-        <v>0.32</v>
+        <v>0.319</v>
       </c>
       <c r="I3" s="1">
-        <v>0.866</v>
+        <v>0.862</v>
       </c>
       <c r="J3" s="1">
         <v>0.2226</v>
@@ -2550,10 +2954,10 @@
         <v>1.5515</v>
       </c>
       <c r="L3" s="1">
-        <v>1.5515</v>
+        <v>1.5532</v>
       </c>
       <c r="M3" s="1">
-        <v>6.7425</v>
+        <v>6.7495</v>
       </c>
       <c r="N3" s="1">
         <v>0.0004</v>
@@ -2586,10 +2990,10 @@
         <v>0.08</v>
       </c>
       <c r="H4" s="1">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I4" s="1">
-        <v>0.852</v>
+        <v>0.86</v>
       </c>
       <c r="J4" s="1">
         <v>0.1287</v>
@@ -2598,10 +3002,10 @@
         <v>0.367</v>
       </c>
       <c r="L4" s="1">
-        <v>0.367</v>
+        <v>0.6298</v>
       </c>
       <c r="M4" s="1">
-        <v>4.7743</v>
+        <v>4.7624</v>
       </c>
       <c r="N4" s="1">
         <v>0.0926</v>
@@ -2634,10 +3038,10 @@
         <v>0.3</v>
       </c>
       <c r="H5" s="1">
-        <v>0.3</v>
+        <v>0.304</v>
       </c>
       <c r="I5" s="1">
-        <v>0.852</v>
+        <v>0.857</v>
       </c>
       <c r="J5" s="1">
         <v>0.2082</v>
@@ -2646,10 +3050,10 @@
         <v>1.4724</v>
       </c>
       <c r="L5" s="1">
-        <v>1.4724</v>
+        <v>1.4839</v>
       </c>
       <c r="M5" s="1">
-        <v>6.8443</v>
+        <v>6.9174</v>
       </c>
       <c r="N5" s="1">
         <v>0.0007</v>
@@ -2682,10 +3086,10 @@
         <v>0.231</v>
       </c>
       <c r="H6" s="1">
-        <v>0.231</v>
+        <v>0.232</v>
       </c>
       <c r="I6" s="1">
-        <v>0.844</v>
+        <v>0.849</v>
       </c>
       <c r="J6" s="1">
         <v>0.1149</v>
@@ -2694,10 +3098,10 @@
         <v>1.2683</v>
       </c>
       <c r="L6" s="1">
-        <v>1.2683</v>
+        <v>1.2712</v>
       </c>
       <c r="M6" s="1">
-        <v>8.4498</v>
+        <v>8.3323</v>
       </c>
       <c r="N6" s="1">
         <v>0.0013</v>
@@ -2733,7 +3137,7 @@
         <v>0.333</v>
       </c>
       <c r="I7" s="1">
-        <v>0.85</v>
+        <v>0.857</v>
       </c>
       <c r="J7" s="1">
         <v>0.2129</v>
@@ -2745,7 +3149,7 @@
         <v>1.6454</v>
       </c>
       <c r="M7" s="1">
-        <v>7.0478</v>
+        <v>7.095</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -2774,10 +3178,10 @@
         <v>0.348</v>
       </c>
       <c r="H8" s="1">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="I8" s="1">
-        <v>0.863</v>
+        <v>0.86</v>
       </c>
       <c r="J8" s="1">
         <v>0.2006</v>
@@ -2786,10 +3190,10 @@
         <v>1.7025</v>
       </c>
       <c r="L8" s="1">
-        <v>1.7025</v>
+        <v>1.7042</v>
       </c>
       <c r="M8" s="1">
-        <v>6.7206</v>
+        <v>6.7062</v>
       </c>
       <c r="N8" s="1">
         <v>0.0003</v>
@@ -2822,10 +3226,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>0.07000000000000001</v>
+        <v>0.141</v>
       </c>
       <c r="I9" s="1">
-        <v>0.853</v>
+        <v>0.849</v>
       </c>
       <c r="J9" s="1">
         <v>0.1295</v>
@@ -2834,10 +3238,10 @@
         <v>0.3375</v>
       </c>
       <c r="L9" s="1">
-        <v>0.3375</v>
+        <v>0.6235000000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>4.9735</v>
+        <v>4.9901</v>
       </c>
       <c r="N9" s="1">
         <v>0.1064</v>
@@ -2873,7 +3277,7 @@
         <v>0.298</v>
       </c>
       <c r="I10" s="1">
-        <v>0.854</v>
+        <v>0.86</v>
       </c>
       <c r="J10" s="1">
         <v>0.2057</v>
@@ -2882,10 +3286,10 @@
         <v>1.4118</v>
       </c>
       <c r="L10" s="1">
-        <v>1.4118</v>
+        <v>1.4163</v>
       </c>
       <c r="M10" s="1">
-        <v>6.7363</v>
+        <v>6.8834</v>
       </c>
       <c r="N10" s="1">
         <v>0.0005</v>
@@ -2896,298 +3300,280 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="5">
         <v>0.217</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H12" s="5">
         <v>0.217</v>
       </c>
-      <c r="I11" s="1">
-        <v>0.841</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I12" s="5">
+        <v>0.837</v>
+      </c>
+      <c r="J12" s="5">
         <v>0.0989</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K12" s="5">
         <v>1.1583</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L12" s="5">
         <v>1.1583</v>
       </c>
-      <c r="M11" s="1">
-        <v>8.410399999999999</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="3" t="s">
+      <c r="M12" s="5">
+        <v>8.4032</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3">
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="7">
         <v>0.236</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H13" s="7">
         <v>0.236</v>
       </c>
-      <c r="I12" s="3">
-        <v>0.849</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="I13" s="7">
+        <v>0.839</v>
+      </c>
+      <c r="J13" s="7">
         <v>0.1006</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K13" s="7">
         <v>1.2534</v>
       </c>
-      <c r="L12" s="3">
-        <v>1.2534</v>
-      </c>
-      <c r="M12" s="3">
-        <v>9.091699999999999</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="L13" s="7">
+        <v>1.2539</v>
+      </c>
+      <c r="M13" s="7">
+        <v>8.8756</v>
+      </c>
+      <c r="N13" s="7">
         <v>0.216</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="5" t="s">
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5">
-        <v>5</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="5">
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7">
+        <v>5</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="7">
         <v>0.212</v>
       </c>
-      <c r="H13" s="5">
-        <v>0.212</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0.838</v>
-      </c>
-      <c r="J13" s="5">
+      <c r="H14" s="7">
+        <v>0.214</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.828</v>
+      </c>
+      <c r="J14" s="7">
         <v>0.1011</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K14" s="7">
         <v>1.1213</v>
       </c>
-      <c r="L13" s="5">
-        <v>1.1213</v>
-      </c>
-      <c r="M13" s="5">
-        <v>8.404999999999999</v>
-      </c>
-      <c r="N13" s="5">
+      <c r="L14" s="7">
+        <v>1.122</v>
+      </c>
+      <c r="M14" s="7">
+        <v>8.299200000000001</v>
+      </c>
+      <c r="N14" s="7">
         <v>0.2121</v>
       </c>
-      <c r="O13" s="5">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5">
-        <v>5</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="7">
+        <v>5</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="7">
         <v>500</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="E15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="7">
         <v>0.265</v>
       </c>
-      <c r="H14" s="5">
-        <v>0.265</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0.853</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="H15" s="7">
+        <v>0.267</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.856</v>
+      </c>
+      <c r="J15" s="7">
         <v>0.1237</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K15" s="7">
         <v>1.5141</v>
       </c>
-      <c r="L14" s="5">
-        <v>1.5141</v>
-      </c>
-      <c r="M14" s="5">
-        <v>8.7925</v>
-      </c>
-      <c r="N14" s="5">
+      <c r="L15" s="7">
+        <v>1.5159</v>
+      </c>
+      <c r="M15" s="7">
+        <v>8.959899999999999</v>
+      </c>
+      <c r="N15" s="7">
         <v>0.0017</v>
       </c>
-      <c r="O14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5">
-        <v>5</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7">
+        <v>5</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
         <v>500</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="E16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="7">
         <v>0.208</v>
       </c>
-      <c r="H15" s="5">
-        <v>0.208</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0.835</v>
-      </c>
-      <c r="J15" s="5">
+      <c r="H16" s="7">
+        <v>0.218</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.842</v>
+      </c>
+      <c r="J16" s="7">
         <v>0.0858</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K16" s="7">
         <v>1.1387</v>
       </c>
-      <c r="L15" s="5">
-        <v>1.1387</v>
-      </c>
-      <c r="M15" s="5">
-        <v>8.407</v>
-      </c>
-      <c r="N15" s="5">
+      <c r="L16" s="7">
+        <v>1.1956</v>
+      </c>
+      <c r="M16" s="7">
+        <v>8.565099999999999</v>
+      </c>
+      <c r="N16" s="7">
         <v>0.0456</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O16" s="7">
         <v>0.0001</v>
       </c>
-      <c r="P15" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="5">
-        <v>5</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0.206</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0.206</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0.843</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0.1061</v>
-      </c>
-      <c r="K16" s="5">
-        <v>1.1768</v>
-      </c>
-      <c r="L16" s="5">
-        <v>1.1768</v>
-      </c>
-      <c r="M16" s="5">
-        <v>8.5905</v>
-      </c>
-      <c r="N16" s="5">
-        <v>0.2041</v>
-      </c>
-      <c r="O16" s="5">
-        <v>0</v>
-      </c>
-      <c r="P16" s="5"/>
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
@@ -3203,34 +3589,34 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="1">
-        <v>0.273</v>
+        <v>0.206</v>
       </c>
       <c r="H17" s="1">
-        <v>0.273</v>
+        <v>0.207</v>
       </c>
       <c r="I17" s="1">
-        <v>0.866</v>
+        <v>0.84</v>
       </c>
       <c r="J17" s="1">
-        <v>8.882400000000001</v>
+        <v>0.1061</v>
       </c>
       <c r="K17" s="1">
-        <v>24.2387</v>
+        <v>1.1768</v>
       </c>
       <c r="L17" s="1">
-        <v>24.2387</v>
+        <v>1.1752</v>
       </c>
       <c r="M17" s="1">
-        <v>9.0037</v>
+        <v>8.5298</v>
       </c>
       <c r="N17" s="1">
-        <v>0.07000000000000001</v>
+        <v>0.2041</v>
       </c>
       <c r="O17" s="1">
         <v>0</v>
@@ -3248,37 +3634,37 @@
         <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="1">
-        <v>0.227</v>
+        <v>0.273</v>
       </c>
       <c r="H18" s="1">
-        <v>0.227</v>
+        <v>0.273</v>
       </c>
       <c r="I18" s="1">
-        <v>0.846</v>
+        <v>0.87</v>
       </c>
       <c r="J18" s="1">
-        <v>0.1075</v>
+        <v>8.882400000000001</v>
       </c>
       <c r="K18" s="1">
-        <v>1.2142</v>
+        <v>24.2387</v>
       </c>
       <c r="L18" s="1">
-        <v>1.2142</v>
+        <v>24.2294</v>
       </c>
       <c r="M18" s="1">
-        <v>8.6073</v>
+        <v>9.097200000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>0.0017</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O18" s="1">
         <v>0</v>
@@ -3299,37 +3685,37 @@
         <v>500</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="1">
-        <v>0.45</v>
+        <v>0.227</v>
       </c>
       <c r="H19" s="1">
-        <v>0.45</v>
+        <v>0.226</v>
       </c>
       <c r="I19" s="1">
-        <v>0.878</v>
+        <v>0.848</v>
       </c>
       <c r="J19" s="1">
-        <v>1.2318</v>
+        <v>0.1075</v>
       </c>
       <c r="K19" s="1">
-        <v>3.3416</v>
+        <v>1.2142</v>
       </c>
       <c r="L19" s="1">
-        <v>3.3416</v>
+        <v>1.2156</v>
       </c>
       <c r="M19" s="1">
-        <v>6.5794</v>
+        <v>8.6508</v>
       </c>
       <c r="N19" s="1">
-        <v>3.4905</v>
+        <v>0.0017</v>
       </c>
       <c r="O19" s="1">
-        <v>0.0065</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1"/>
     </row>
@@ -3344,242 +3730,242 @@
         <v>5</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G20" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.701</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.891</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.2318</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3.3416</v>
+      </c>
+      <c r="L20" s="1">
+        <v>10.6916</v>
+      </c>
+      <c r="M20" s="1">
+        <v>6.6866</v>
+      </c>
+      <c r="N20" s="1">
+        <v>3.4905</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.0065</v>
+      </c>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="9">
+        <v>5</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="9">
         <v>0.205</v>
       </c>
-      <c r="H20" s="1">
-        <v>0.205</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.836</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="H21" s="9">
+        <v>0.206</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.845</v>
+      </c>
+      <c r="J21" s="9">
         <v>0.1144</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K21" s="9">
         <v>1.1569</v>
       </c>
-      <c r="L20" s="1">
-        <v>1.1569</v>
-      </c>
-      <c r="M20" s="1">
-        <v>8.3744</v>
-      </c>
-      <c r="N20" s="1">
+      <c r="L21" s="9">
+        <v>1.1594</v>
+      </c>
+      <c r="M21" s="9">
+        <v>8.490600000000001</v>
+      </c>
+      <c r="N21" s="9">
         <v>0.2091</v>
       </c>
-      <c r="O20" s="1">
-        <v>0</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="7" t="s">
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+      <c r="P21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="7">
-        <v>5</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="7">
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="9">
+        <v>5</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="9">
         <v>0.327</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H22" s="9">
         <v>0.327</v>
       </c>
-      <c r="I21" s="7">
-        <v>0.849</v>
-      </c>
-      <c r="J21" s="7">
+      <c r="I22" s="9">
+        <v>0.847</v>
+      </c>
+      <c r="J22" s="9">
         <v>0.09810000000000001</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K22" s="9">
         <v>2.0737</v>
       </c>
-      <c r="L21" s="7">
-        <v>2.0737</v>
-      </c>
-      <c r="M21" s="7">
-        <v>11.3823</v>
-      </c>
-      <c r="N21" s="7">
+      <c r="L22" s="9">
+        <v>2.0766</v>
+      </c>
+      <c r="M22" s="9">
+        <v>11.2296</v>
+      </c>
+      <c r="N22" s="9">
         <v>0.3696</v>
       </c>
-      <c r="O21" s="7">
-        <v>0</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="7">
-        <v>5</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="9">
+        <v>5</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="9">
         <v>500</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="7">
+      <c r="E23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="9">
         <v>0.232</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H23" s="9">
         <v>0.232</v>
       </c>
-      <c r="I22" s="7">
-        <v>0.855</v>
-      </c>
-      <c r="J22" s="7">
+      <c r="I23" s="9">
+        <v>0.848</v>
+      </c>
+      <c r="J23" s="9">
         <v>0.108</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K23" s="9">
         <v>1.2517</v>
       </c>
-      <c r="L22" s="7">
-        <v>1.2517</v>
-      </c>
-      <c r="M22" s="7">
-        <v>8.9907</v>
-      </c>
-      <c r="N22" s="7">
+      <c r="L23" s="9">
+        <v>1.2523</v>
+      </c>
+      <c r="M23" s="9">
+        <v>8.837999999999999</v>
+      </c>
+      <c r="N23" s="9">
         <v>0.0018</v>
       </c>
-      <c r="O22" s="7">
-        <v>0</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="7">
-        <v>5</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="9">
+        <v>5</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="9">
         <v>500</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="E24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="9">
         <v>0.312</v>
       </c>
-      <c r="H23" s="7">
-        <v>0.312</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0.846</v>
-      </c>
-      <c r="J23" s="7">
+      <c r="H24" s="9">
+        <v>0.313</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0.843</v>
+      </c>
+      <c r="J24" s="9">
         <v>0.0934</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K24" s="9">
         <v>2.0256</v>
       </c>
-      <c r="L23" s="7">
-        <v>2.0256</v>
-      </c>
-      <c r="M23" s="7">
-        <v>11.3549</v>
-      </c>
-      <c r="N23" s="7">
+      <c r="L24" s="9">
+        <v>2.0357</v>
+      </c>
+      <c r="M24" s="9">
+        <v>11.3588</v>
+      </c>
+      <c r="N24" s="9">
         <v>0.0061</v>
       </c>
-      <c r="O23" s="7">
-        <v>0</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="7">
-        <v>5</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0.039</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0.039</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0.842</v>
-      </c>
-      <c r="J24" s="7">
-        <v>0.0587</v>
-      </c>
-      <c r="K24" s="7">
-        <v>0.197</v>
-      </c>
-      <c r="L24" s="7">
-        <v>0.197</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6.3428</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0.015</v>
-      </c>
-      <c r="O24" s="7">
-        <v>0.015</v>
-      </c>
-      <c r="P24" s="7"/>
+      <c r="O24" s="9">
+        <v>0</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
@@ -3589,47 +3975,45 @@
         <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G25" s="1">
-        <v>0.314</v>
+        <v>0.039</v>
       </c>
       <c r="H25" s="1">
-        <v>0.314</v>
+        <v>0.098</v>
       </c>
       <c r="I25" s="1">
-        <v>0.844</v>
+        <v>0.839</v>
       </c>
       <c r="J25" s="1">
-        <v>0.09420000000000001</v>
+        <v>0.0587</v>
       </c>
       <c r="K25" s="1">
-        <v>2.0388</v>
+        <v>0.197</v>
       </c>
       <c r="L25" s="1">
-        <v>2.0388</v>
+        <v>0.4618</v>
       </c>
       <c r="M25" s="1">
-        <v>11.3951</v>
+        <v>6.4193</v>
       </c>
       <c r="N25" s="1">
-        <v>0.0048</v>
+        <v>0.015</v>
       </c>
       <c r="O25" s="1">
-        <v>0</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>0.015</v>
+      </c>
+      <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
@@ -3642,7 +4026,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="1">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>3</v>
@@ -3651,34 +4035,34 @@
         <v>5</v>
       </c>
       <c r="G26" s="1">
-        <v>0.318</v>
+        <v>0.314</v>
       </c>
       <c r="H26" s="1">
-        <v>0.318</v>
+        <v>0.317</v>
       </c>
       <c r="I26" s="1">
-        <v>0.846</v>
+        <v>0.853</v>
       </c>
       <c r="J26" s="1">
-        <v>0.0945</v>
+        <v>0.09420000000000001</v>
       </c>
       <c r="K26" s="1">
-        <v>2.0596</v>
+        <v>2.0388</v>
       </c>
       <c r="L26" s="1">
-        <v>2.0596</v>
+        <v>2.0647</v>
       </c>
       <c r="M26" s="1">
-        <v>11.339</v>
+        <v>11.5642</v>
       </c>
       <c r="N26" s="1">
-        <v>0.0056</v>
+        <v>0.0048</v>
       </c>
       <c r="O26" s="1">
         <v>0</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -3686,79 +4070,379 @@
         <v>33</v>
       </c>
       <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>750</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G27" s="1">
+        <v>0.318</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.321</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.844</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.0945</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2.0596</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2.0779</v>
+      </c>
+      <c r="M27" s="1">
+        <v>11.2494</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.0056</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11">
         <v>0.21</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H28" s="11">
         <v>0.21</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I28" s="11">
+        <v>0.839</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0.1242</v>
+      </c>
+      <c r="K28" s="11">
+        <v>1.7621</v>
+      </c>
+      <c r="L28" s="11">
+        <v>1.7621</v>
+      </c>
+      <c r="M28" s="11">
+        <v>14.7399</v>
+      </c>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="11">
+        <v>5</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11">
+        <v>0.032</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0.078</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0.833</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0.0525</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0.1982</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0.549</v>
+      </c>
+      <c r="M29" s="11">
+        <v>10.8191</v>
+      </c>
+      <c r="N29" s="11">
+        <v>0.0716</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0.0716</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="9">
+        <v>5</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.239</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.238</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="J30" s="9">
+        <v>0.1115</v>
+      </c>
+      <c r="K30" s="9">
+        <v>1.2891</v>
+      </c>
+      <c r="L30" s="9">
+        <v>1.2886</v>
+      </c>
+      <c r="M30" s="9">
+        <v>8.6487</v>
+      </c>
+      <c r="N30" s="9">
+        <v>0.1523</v>
+      </c>
+      <c r="O30" s="9">
+        <v>0</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="9">
+        <v>5</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0.327</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0.327</v>
+      </c>
+      <c r="I31" s="9">
         <v>0.846</v>
       </c>
-      <c r="J27" s="1">
-        <v>0.1242</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1.7621</v>
-      </c>
-      <c r="L27" s="1">
-        <v>1.7621</v>
-      </c>
-      <c r="M27" s="1">
-        <v>14.9924</v>
-      </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="9">
-        <v>5</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9">
-        <v>0.032</v>
-      </c>
-      <c r="H28" s="9">
-        <v>0.032</v>
-      </c>
-      <c r="I28" s="9">
+      <c r="J31" s="9">
+        <v>0.09810000000000001</v>
+      </c>
+      <c r="K31" s="9">
+        <v>2.0722</v>
+      </c>
+      <c r="L31" s="9">
+        <v>2.0728</v>
+      </c>
+      <c r="M31" s="9">
+        <v>11.3081</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0.2361</v>
+      </c>
+      <c r="O31" s="9">
+        <v>0</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="9">
+        <v>5</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="9">
+        <v>500</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.244</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0.244</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0.857</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0.1013</v>
+      </c>
+      <c r="K32" s="9">
+        <v>1.3275</v>
+      </c>
+      <c r="L32" s="9">
+        <v>1.3287</v>
+      </c>
+      <c r="M32" s="9">
+        <v>9.316000000000001</v>
+      </c>
+      <c r="N32" s="9">
+        <v>0.0009</v>
+      </c>
+      <c r="O32" s="9">
+        <v>0</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="9">
+        <v>5</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="9">
+        <v>500</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0.319</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0.319</v>
+      </c>
+      <c r="I33" s="9">
         <v>0.839</v>
       </c>
-      <c r="J28" s="9">
-        <v>0.0525</v>
-      </c>
-      <c r="K28" s="9">
-        <v>0.1982</v>
-      </c>
-      <c r="L28" s="9">
-        <v>0.1982</v>
-      </c>
-      <c r="M28" s="9">
-        <v>10.6791</v>
-      </c>
-      <c r="N28" s="9">
-        <v>0.0716</v>
-      </c>
-      <c r="O28" s="9">
-        <v>0.0716</v>
-      </c>
-      <c r="P28" s="9" t="s">
-        <v>36</v>
+      <c r="J33" s="9">
+        <v>0.09660000000000001</v>
+      </c>
+      <c r="K33" s="9">
+        <v>2.0707</v>
+      </c>
+      <c r="L33" s="9">
+        <v>2.0742</v>
+      </c>
+      <c r="M33" s="9">
+        <v>11.2989</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0.0031</v>
+      </c>
+      <c r="O33" s="9">
+        <v>0</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="9">
+        <v>5</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0.311</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0.313</v>
+      </c>
+      <c r="I34" s="9">
+        <v>0.84</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0.0964</v>
+      </c>
+      <c r="K34" s="9">
+        <v>2.0731</v>
+      </c>
+      <c r="L34" s="9">
+        <v>2.0794</v>
+      </c>
+      <c r="M34" s="9">
+        <v>11.2929</v>
+      </c>
+      <c r="N34" s="9">
+        <v>0.0025</v>
+      </c>
+      <c r="O34" s="9">
+        <v>0</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Stein Gradients/Experiments/Results Add.xlsx
+++ b/Stein Gradients/Experiments/Results Add.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="67">
   <si>
     <t>model_1</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>model_29</t>
+  </si>
+  <si>
+    <t>model_33</t>
+  </si>
+  <si>
+    <t>model_34</t>
   </si>
   <si>
     <t>experiment_name</t>
@@ -592,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,70 +630,70 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="R1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -734,7 +740,7 @@
         <v>0.308</v>
       </c>
       <c r="O2" s="1">
-        <v>0.86</v>
+        <v>0.863</v>
       </c>
       <c r="P2" s="1">
         <v>0.2244</v>
@@ -746,7 +752,7 @@
         <v>1.5593</v>
       </c>
       <c r="S2" s="1">
-        <v>6.8691</v>
+        <v>6.8065</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -796,7 +802,7 @@
         <v>0.319</v>
       </c>
       <c r="O3" s="1">
-        <v>0.862</v>
+        <v>0.861</v>
       </c>
       <c r="P3" s="1">
         <v>0.2226</v>
@@ -808,7 +814,7 @@
         <v>1.5532</v>
       </c>
       <c r="S3" s="1">
-        <v>6.7495</v>
+        <v>6.7647</v>
       </c>
       <c r="T3" s="1">
         <v>0.0004</v>
@@ -862,7 +868,7 @@
         <v>0.15</v>
       </c>
       <c r="O4" s="1">
-        <v>0.86</v>
+        <v>0.854</v>
       </c>
       <c r="P4" s="1">
         <v>0.1287</v>
@@ -874,7 +880,7 @@
         <v>0.6298</v>
       </c>
       <c r="S4" s="1">
-        <v>4.7624</v>
+        <v>4.7517</v>
       </c>
       <c r="T4" s="1">
         <v>0.0926</v>
@@ -928,7 +934,7 @@
         <v>0.304</v>
       </c>
       <c r="O5" s="1">
-        <v>0.857</v>
+        <v>0.848</v>
       </c>
       <c r="P5" s="1">
         <v>0.2082</v>
@@ -940,7 +946,7 @@
         <v>1.4839</v>
       </c>
       <c r="S5" s="1">
-        <v>6.9174</v>
+        <v>6.8056</v>
       </c>
       <c r="T5" s="1">
         <v>0.0007</v>
@@ -1006,7 +1012,7 @@
         <v>1.2712</v>
       </c>
       <c r="S6" s="1">
-        <v>8.3323</v>
+        <v>8.4152</v>
       </c>
       <c r="T6" s="1">
         <v>0.0013</v>
@@ -1058,7 +1064,7 @@
         <v>0.333</v>
       </c>
       <c r="O7" s="1">
-        <v>0.857</v>
+        <v>0.855</v>
       </c>
       <c r="P7" s="1">
         <v>0.2129</v>
@@ -1070,7 +1076,7 @@
         <v>1.6454</v>
       </c>
       <c r="S7" s="1">
-        <v>7.095</v>
+        <v>7.1047</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -1118,7 +1124,7 @@
         <v>0.349</v>
       </c>
       <c r="O8" s="1">
-        <v>0.86</v>
+        <v>0.855</v>
       </c>
       <c r="P8" s="1">
         <v>0.2006</v>
@@ -1130,7 +1136,7 @@
         <v>1.7042</v>
       </c>
       <c r="S8" s="1">
-        <v>6.7062</v>
+        <v>6.6377</v>
       </c>
       <c r="T8" s="1">
         <v>0.0003</v>
@@ -1182,7 +1188,7 @@
         <v>0.141</v>
       </c>
       <c r="O9" s="1">
-        <v>0.849</v>
+        <v>0.853</v>
       </c>
       <c r="P9" s="1">
         <v>0.1295</v>
@@ -1194,7 +1200,7 @@
         <v>0.6235000000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>4.9901</v>
+        <v>4.9554</v>
       </c>
       <c r="T9" s="1">
         <v>0.1064</v>
@@ -1246,7 +1252,7 @@
         <v>0.298</v>
       </c>
       <c r="O10" s="1">
-        <v>0.86</v>
+        <v>0.852</v>
       </c>
       <c r="P10" s="1">
         <v>0.2057</v>
@@ -1258,7 +1264,7 @@
         <v>1.4163</v>
       </c>
       <c r="S10" s="1">
-        <v>6.8834</v>
+        <v>6.6962</v>
       </c>
       <c r="T10" s="1">
         <v>0.0005</v>
@@ -1356,7 +1362,7 @@
         <v>0.217</v>
       </c>
       <c r="O12" s="5">
-        <v>0.837</v>
+        <v>0.841</v>
       </c>
       <c r="P12" s="5">
         <v>0.0989</v>
@@ -1368,7 +1374,7 @@
         <v>1.1583</v>
       </c>
       <c r="S12" s="5">
-        <v>8.4032</v>
+        <v>8.421200000000001</v>
       </c>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -1418,7 +1424,7 @@
         <v>0.236</v>
       </c>
       <c r="O13" s="7">
-        <v>0.839</v>
+        <v>0.842</v>
       </c>
       <c r="P13" s="7">
         <v>0.1006</v>
@@ -1430,7 +1436,7 @@
         <v>1.2539</v>
       </c>
       <c r="S13" s="7">
-        <v>8.8756</v>
+        <v>9.100899999999999</v>
       </c>
       <c r="T13" s="7">
         <v>0.216</v>
@@ -1484,7 +1490,7 @@
         <v>0.214</v>
       </c>
       <c r="O14" s="7">
-        <v>0.828</v>
+        <v>0.832</v>
       </c>
       <c r="P14" s="7">
         <v>0.1011</v>
@@ -1496,7 +1502,7 @@
         <v>1.122</v>
       </c>
       <c r="S14" s="7">
-        <v>8.299200000000001</v>
+        <v>8.4269</v>
       </c>
       <c r="T14" s="7">
         <v>0.2121</v>
@@ -1562,7 +1568,7 @@
         <v>1.5159</v>
       </c>
       <c r="S15" s="7">
-        <v>8.959899999999999</v>
+        <v>8.9308</v>
       </c>
       <c r="T15" s="7">
         <v>0.0017</v>
@@ -1616,7 +1622,7 @@
         <v>0.218</v>
       </c>
       <c r="O16" s="7">
-        <v>0.842</v>
+        <v>0.844</v>
       </c>
       <c r="P16" s="7">
         <v>0.0858</v>
@@ -1628,7 +1634,7 @@
         <v>1.1956</v>
       </c>
       <c r="S16" s="7">
-        <v>8.565099999999999</v>
+        <v>8.4758</v>
       </c>
       <c r="T16" s="7">
         <v>0.0456</v>
@@ -1682,7 +1688,7 @@
         <v>0.207</v>
       </c>
       <c r="O17" s="1">
-        <v>0.84</v>
+        <v>0.842</v>
       </c>
       <c r="P17" s="1">
         <v>0.1061</v>
@@ -1694,7 +1700,7 @@
         <v>1.1752</v>
       </c>
       <c r="S17" s="1">
-        <v>8.5298</v>
+        <v>8.5421</v>
       </c>
       <c r="T17" s="1">
         <v>0.2041</v>
@@ -1746,7 +1752,7 @@
         <v>0.273</v>
       </c>
       <c r="O18" s="1">
-        <v>0.87</v>
+        <v>0.866</v>
       </c>
       <c r="P18" s="1">
         <v>8.882400000000001</v>
@@ -1758,7 +1764,7 @@
         <v>24.2294</v>
       </c>
       <c r="S18" s="1">
-        <v>9.097200000000001</v>
+        <v>8.936400000000001</v>
       </c>
       <c r="T18" s="1">
         <v>0.07000000000000001</v>
@@ -1810,7 +1816,7 @@
         <v>0.226</v>
       </c>
       <c r="O19" s="1">
-        <v>0.848</v>
+        <v>0.843</v>
       </c>
       <c r="P19" s="1">
         <v>0.1075</v>
@@ -1822,7 +1828,7 @@
         <v>1.2156</v>
       </c>
       <c r="S19" s="1">
-        <v>8.6508</v>
+        <v>8.5474</v>
       </c>
       <c r="T19" s="1">
         <v>0.0017</v>
@@ -1874,7 +1880,7 @@
         <v>0.701</v>
       </c>
       <c r="O20" s="1">
-        <v>0.891</v>
+        <v>0.884</v>
       </c>
       <c r="P20" s="1">
         <v>1.2318</v>
@@ -1886,7 +1892,7 @@
         <v>10.6916</v>
       </c>
       <c r="S20" s="1">
-        <v>6.6866</v>
+        <v>6.6601</v>
       </c>
       <c r="T20" s="1">
         <v>3.4905</v>
@@ -1938,7 +1944,7 @@
         <v>0.206</v>
       </c>
       <c r="O21" s="9">
-        <v>0.845</v>
+        <v>0.846</v>
       </c>
       <c r="P21" s="9">
         <v>0.1144</v>
@@ -1950,7 +1956,7 @@
         <v>1.1594</v>
       </c>
       <c r="S21" s="9">
-        <v>8.490600000000001</v>
+        <v>8.503399999999999</v>
       </c>
       <c r="T21" s="9">
         <v>0.2091</v>
@@ -2004,7 +2010,7 @@
         <v>0.327</v>
       </c>
       <c r="O22" s="9">
-        <v>0.847</v>
+        <v>0.843</v>
       </c>
       <c r="P22" s="9">
         <v>0.09810000000000001</v>
@@ -2016,7 +2022,7 @@
         <v>2.0766</v>
       </c>
       <c r="S22" s="9">
-        <v>11.2296</v>
+        <v>11.2997</v>
       </c>
       <c r="T22" s="9">
         <v>0.3696</v>
@@ -2070,7 +2076,7 @@
         <v>0.232</v>
       </c>
       <c r="O23" s="9">
-        <v>0.848</v>
+        <v>0.85</v>
       </c>
       <c r="P23" s="9">
         <v>0.108</v>
@@ -2082,7 +2088,7 @@
         <v>1.2523</v>
       </c>
       <c r="S23" s="9">
-        <v>8.837999999999999</v>
+        <v>8.9001</v>
       </c>
       <c r="T23" s="9">
         <v>0.0018</v>
@@ -2136,7 +2142,7 @@
         <v>0.313</v>
       </c>
       <c r="O24" s="9">
-        <v>0.843</v>
+        <v>0.841</v>
       </c>
       <c r="P24" s="9">
         <v>0.0934</v>
@@ -2148,7 +2154,7 @@
         <v>2.0357</v>
       </c>
       <c r="S24" s="9">
-        <v>11.3588</v>
+        <v>11.2911</v>
       </c>
       <c r="T24" s="9">
         <v>0.0061</v>
@@ -2202,7 +2208,7 @@
         <v>0.098</v>
       </c>
       <c r="O25" s="1">
-        <v>0.839</v>
+        <v>0.835</v>
       </c>
       <c r="P25" s="1">
         <v>0.0587</v>
@@ -2214,7 +2220,7 @@
         <v>0.4618</v>
       </c>
       <c r="S25" s="1">
-        <v>6.4193</v>
+        <v>6.3105</v>
       </c>
       <c r="T25" s="1">
         <v>0.015</v>
@@ -2266,7 +2272,7 @@
         <v>0.317</v>
       </c>
       <c r="O26" s="1">
-        <v>0.853</v>
+        <v>0.843</v>
       </c>
       <c r="P26" s="1">
         <v>0.09420000000000001</v>
@@ -2278,7 +2284,7 @@
         <v>2.0647</v>
       </c>
       <c r="S26" s="1">
-        <v>11.5642</v>
+        <v>11.403</v>
       </c>
       <c r="T26" s="1">
         <v>0.0048</v>
@@ -2332,7 +2338,7 @@
         <v>0.321</v>
       </c>
       <c r="O27" s="1">
-        <v>0.844</v>
+        <v>0.836</v>
       </c>
       <c r="P27" s="1">
         <v>0.0945</v>
@@ -2344,7 +2350,7 @@
         <v>2.0779</v>
       </c>
       <c r="S27" s="1">
-        <v>11.2494</v>
+        <v>11.3736</v>
       </c>
       <c r="T27" s="1">
         <v>0.0056</v>
@@ -2388,7 +2394,7 @@
         <v>0.21</v>
       </c>
       <c r="O28" s="11">
-        <v>0.839</v>
+        <v>0.844</v>
       </c>
       <c r="P28" s="11">
         <v>0.1242</v>
@@ -2400,7 +2406,7 @@
         <v>1.7621</v>
       </c>
       <c r="S28" s="11">
-        <v>14.7399</v>
+        <v>14.8322</v>
       </c>
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
@@ -2440,7 +2446,7 @@
         <v>0.078</v>
       </c>
       <c r="O29" s="11">
-        <v>0.833</v>
+        <v>0.841</v>
       </c>
       <c r="P29" s="11">
         <v>0.0525</v>
@@ -2452,7 +2458,7 @@
         <v>0.549</v>
       </c>
       <c r="S29" s="11">
-        <v>10.8191</v>
+        <v>10.7974</v>
       </c>
       <c r="T29" s="11">
         <v>0.0716</v>
@@ -2518,7 +2524,7 @@
         <v>1.2886</v>
       </c>
       <c r="S30" s="9">
-        <v>8.6487</v>
+        <v>8.523199999999999</v>
       </c>
       <c r="T30" s="9">
         <v>0.1523</v>
@@ -2572,7 +2578,7 @@
         <v>0.327</v>
       </c>
       <c r="O31" s="9">
-        <v>0.846</v>
+        <v>0.847</v>
       </c>
       <c r="P31" s="9">
         <v>0.09810000000000001</v>
@@ -2584,7 +2590,7 @@
         <v>2.0728</v>
       </c>
       <c r="S31" s="9">
-        <v>11.3081</v>
+        <v>11.2114</v>
       </c>
       <c r="T31" s="9">
         <v>0.2361</v>
@@ -2638,7 +2644,7 @@
         <v>0.244</v>
       </c>
       <c r="O32" s="9">
-        <v>0.857</v>
+        <v>0.855</v>
       </c>
       <c r="P32" s="9">
         <v>0.1013</v>
@@ -2650,7 +2656,7 @@
         <v>1.3287</v>
       </c>
       <c r="S32" s="9">
-        <v>9.316000000000001</v>
+        <v>9.213100000000001</v>
       </c>
       <c r="T32" s="9">
         <v>0.0009</v>
@@ -2704,7 +2710,7 @@
         <v>0.319</v>
       </c>
       <c r="O33" s="9">
-        <v>0.839</v>
+        <v>0.843</v>
       </c>
       <c r="P33" s="9">
         <v>0.09660000000000001</v>
@@ -2716,7 +2722,7 @@
         <v>2.0742</v>
       </c>
       <c r="S33" s="9">
-        <v>11.2989</v>
+        <v>11.335</v>
       </c>
       <c r="T33" s="9">
         <v>0.0031</v>
@@ -2770,7 +2776,7 @@
         <v>0.313</v>
       </c>
       <c r="O34" s="9">
-        <v>0.84</v>
+        <v>0.846</v>
       </c>
       <c r="P34" s="9">
         <v>0.0964</v>
@@ -2782,7 +2788,7 @@
         <v>2.0794</v>
       </c>
       <c r="S34" s="9">
-        <v>11.2929</v>
+        <v>11.3018</v>
       </c>
       <c r="T34" s="9">
         <v>0.0025</v>
@@ -2791,6 +2797,138 @@
         <v>0</v>
       </c>
       <c r="V34" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="9">
+        <v>100</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9">
+        <v>20</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="9">
+        <v>1</v>
+      </c>
+      <c r="J35" s="9">
+        <v>200</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="9">
+        <v>0.227</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0.228</v>
+      </c>
+      <c r="O35" s="9">
+        <v>0.854</v>
+      </c>
+      <c r="P35" s="9">
+        <v>0.113</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>1.2766</v>
+      </c>
+      <c r="R35" s="9">
+        <v>1.2771</v>
+      </c>
+      <c r="S35" s="9">
+        <v>9.295199999999999</v>
+      </c>
+      <c r="T35" s="9">
+        <v>0.3166</v>
+      </c>
+      <c r="U35" s="9">
+        <v>0</v>
+      </c>
+      <c r="V35" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="9">
+        <v>100</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9">
+        <v>20</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="9">
+        <v>1</v>
+      </c>
+      <c r="J36" s="9">
+        <v>200</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M36" s="9">
+        <v>0.327</v>
+      </c>
+      <c r="N36" s="9">
+        <v>0.327</v>
+      </c>
+      <c r="O36" s="9">
+        <v>0.845</v>
+      </c>
+      <c r="P36" s="9">
+        <v>0.09810000000000001</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>2.0717</v>
+      </c>
+      <c r="R36" s="9">
+        <v>2.0742</v>
+      </c>
+      <c r="S36" s="9">
+        <v>11.298</v>
+      </c>
+      <c r="T36" s="9">
+        <v>0.5372</v>
+      </c>
+      <c r="U36" s="9">
+        <v>0</v>
+      </c>
+      <c r="V36" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2801,7 +2939,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2827,52 +2965,52 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2901,7 +3039,7 @@
         <v>0.308</v>
       </c>
       <c r="I2" s="1">
-        <v>0.86</v>
+        <v>0.863</v>
       </c>
       <c r="J2" s="1">
         <v>0.2244</v>
@@ -2913,7 +3051,7 @@
         <v>1.5593</v>
       </c>
       <c r="M2" s="1">
-        <v>6.8691</v>
+        <v>6.8065</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -2945,7 +3083,7 @@
         <v>0.319</v>
       </c>
       <c r="I3" s="1">
-        <v>0.862</v>
+        <v>0.861</v>
       </c>
       <c r="J3" s="1">
         <v>0.2226</v>
@@ -2957,7 +3095,7 @@
         <v>1.5532</v>
       </c>
       <c r="M3" s="1">
-        <v>6.7495</v>
+        <v>6.7647</v>
       </c>
       <c r="N3" s="1">
         <v>0.0004</v>
@@ -2993,7 +3131,7 @@
         <v>0.15</v>
       </c>
       <c r="I4" s="1">
-        <v>0.86</v>
+        <v>0.854</v>
       </c>
       <c r="J4" s="1">
         <v>0.1287</v>
@@ -3005,7 +3143,7 @@
         <v>0.6298</v>
       </c>
       <c r="M4" s="1">
-        <v>4.7624</v>
+        <v>4.7517</v>
       </c>
       <c r="N4" s="1">
         <v>0.0926</v>
@@ -3041,7 +3179,7 @@
         <v>0.304</v>
       </c>
       <c r="I5" s="1">
-        <v>0.857</v>
+        <v>0.848</v>
       </c>
       <c r="J5" s="1">
         <v>0.2082</v>
@@ -3053,7 +3191,7 @@
         <v>1.4839</v>
       </c>
       <c r="M5" s="1">
-        <v>6.9174</v>
+        <v>6.8056</v>
       </c>
       <c r="N5" s="1">
         <v>0.0007</v>
@@ -3101,7 +3239,7 @@
         <v>1.2712</v>
       </c>
       <c r="M6" s="1">
-        <v>8.3323</v>
+        <v>8.4152</v>
       </c>
       <c r="N6" s="1">
         <v>0.0013</v>
@@ -3137,7 +3275,7 @@
         <v>0.333</v>
       </c>
       <c r="I7" s="1">
-        <v>0.857</v>
+        <v>0.855</v>
       </c>
       <c r="J7" s="1">
         <v>0.2129</v>
@@ -3149,7 +3287,7 @@
         <v>1.6454</v>
       </c>
       <c r="M7" s="1">
-        <v>7.095</v>
+        <v>7.1047</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -3181,7 +3319,7 @@
         <v>0.349</v>
       </c>
       <c r="I8" s="1">
-        <v>0.86</v>
+        <v>0.855</v>
       </c>
       <c r="J8" s="1">
         <v>0.2006</v>
@@ -3193,7 +3331,7 @@
         <v>1.7042</v>
       </c>
       <c r="M8" s="1">
-        <v>6.7062</v>
+        <v>6.6377</v>
       </c>
       <c r="N8" s="1">
         <v>0.0003</v>
@@ -3229,7 +3367,7 @@
         <v>0.141</v>
       </c>
       <c r="I9" s="1">
-        <v>0.849</v>
+        <v>0.853</v>
       </c>
       <c r="J9" s="1">
         <v>0.1295</v>
@@ -3241,7 +3379,7 @@
         <v>0.6235000000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>4.9901</v>
+        <v>4.9554</v>
       </c>
       <c r="N9" s="1">
         <v>0.1064</v>
@@ -3277,7 +3415,7 @@
         <v>0.298</v>
       </c>
       <c r="I10" s="1">
-        <v>0.86</v>
+        <v>0.852</v>
       </c>
       <c r="J10" s="1">
         <v>0.2057</v>
@@ -3289,7 +3427,7 @@
         <v>1.4163</v>
       </c>
       <c r="M10" s="1">
-        <v>6.8834</v>
+        <v>6.6962</v>
       </c>
       <c r="N10" s="1">
         <v>0.0005</v>
@@ -3355,7 +3493,7 @@
         <v>0.217</v>
       </c>
       <c r="I12" s="5">
-        <v>0.837</v>
+        <v>0.841</v>
       </c>
       <c r="J12" s="5">
         <v>0.0989</v>
@@ -3367,7 +3505,7 @@
         <v>1.1583</v>
       </c>
       <c r="M12" s="5">
-        <v>8.4032</v>
+        <v>8.421200000000001</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -3401,7 +3539,7 @@
         <v>0.236</v>
       </c>
       <c r="I13" s="7">
-        <v>0.839</v>
+        <v>0.842</v>
       </c>
       <c r="J13" s="7">
         <v>0.1006</v>
@@ -3413,7 +3551,7 @@
         <v>1.2539</v>
       </c>
       <c r="M13" s="7">
-        <v>8.8756</v>
+        <v>9.100899999999999</v>
       </c>
       <c r="N13" s="7">
         <v>0.216</v>
@@ -3451,7 +3589,7 @@
         <v>0.214</v>
       </c>
       <c r="I14" s="7">
-        <v>0.828</v>
+        <v>0.832</v>
       </c>
       <c r="J14" s="7">
         <v>0.1011</v>
@@ -3463,7 +3601,7 @@
         <v>1.122</v>
       </c>
       <c r="M14" s="7">
-        <v>8.299200000000001</v>
+        <v>8.4269</v>
       </c>
       <c r="N14" s="7">
         <v>0.2121</v>
@@ -3513,7 +3651,7 @@
         <v>1.5159</v>
       </c>
       <c r="M15" s="7">
-        <v>8.959899999999999</v>
+        <v>8.9308</v>
       </c>
       <c r="N15" s="7">
         <v>0.0017</v>
@@ -3551,7 +3689,7 @@
         <v>0.218</v>
       </c>
       <c r="I16" s="7">
-        <v>0.842</v>
+        <v>0.844</v>
       </c>
       <c r="J16" s="7">
         <v>0.0858</v>
@@ -3563,7 +3701,7 @@
         <v>1.1956</v>
       </c>
       <c r="M16" s="7">
-        <v>8.565099999999999</v>
+        <v>8.4758</v>
       </c>
       <c r="N16" s="7">
         <v>0.0456</v>
@@ -3601,7 +3739,7 @@
         <v>0.207</v>
       </c>
       <c r="I17" s="1">
-        <v>0.84</v>
+        <v>0.842</v>
       </c>
       <c r="J17" s="1">
         <v>0.1061</v>
@@ -3613,7 +3751,7 @@
         <v>1.1752</v>
       </c>
       <c r="M17" s="1">
-        <v>8.5298</v>
+        <v>8.5421</v>
       </c>
       <c r="N17" s="1">
         <v>0.2041</v>
@@ -3649,7 +3787,7 @@
         <v>0.273</v>
       </c>
       <c r="I18" s="1">
-        <v>0.87</v>
+        <v>0.866</v>
       </c>
       <c r="J18" s="1">
         <v>8.882400000000001</v>
@@ -3661,7 +3799,7 @@
         <v>24.2294</v>
       </c>
       <c r="M18" s="1">
-        <v>9.097200000000001</v>
+        <v>8.936400000000001</v>
       </c>
       <c r="N18" s="1">
         <v>0.07000000000000001</v>
@@ -3697,7 +3835,7 @@
         <v>0.226</v>
       </c>
       <c r="I19" s="1">
-        <v>0.848</v>
+        <v>0.843</v>
       </c>
       <c r="J19" s="1">
         <v>0.1075</v>
@@ -3709,7 +3847,7 @@
         <v>1.2156</v>
       </c>
       <c r="M19" s="1">
-        <v>8.6508</v>
+        <v>8.5474</v>
       </c>
       <c r="N19" s="1">
         <v>0.0017</v>
@@ -3745,7 +3883,7 @@
         <v>0.701</v>
       </c>
       <c r="I20" s="1">
-        <v>0.891</v>
+        <v>0.884</v>
       </c>
       <c r="J20" s="1">
         <v>1.2318</v>
@@ -3757,7 +3895,7 @@
         <v>10.6916</v>
       </c>
       <c r="M20" s="1">
-        <v>6.6866</v>
+        <v>6.6601</v>
       </c>
       <c r="N20" s="1">
         <v>3.4905</v>
@@ -3793,7 +3931,7 @@
         <v>0.206</v>
       </c>
       <c r="I21" s="9">
-        <v>0.845</v>
+        <v>0.846</v>
       </c>
       <c r="J21" s="9">
         <v>0.1144</v>
@@ -3805,7 +3943,7 @@
         <v>1.1594</v>
       </c>
       <c r="M21" s="9">
-        <v>8.490600000000001</v>
+        <v>8.503399999999999</v>
       </c>
       <c r="N21" s="9">
         <v>0.2091</v>
@@ -3843,7 +3981,7 @@
         <v>0.327</v>
       </c>
       <c r="I22" s="9">
-        <v>0.847</v>
+        <v>0.843</v>
       </c>
       <c r="J22" s="9">
         <v>0.09810000000000001</v>
@@ -3855,7 +3993,7 @@
         <v>2.0766</v>
       </c>
       <c r="M22" s="9">
-        <v>11.2296</v>
+        <v>11.2997</v>
       </c>
       <c r="N22" s="9">
         <v>0.3696</v>
@@ -3893,7 +4031,7 @@
         <v>0.232</v>
       </c>
       <c r="I23" s="9">
-        <v>0.848</v>
+        <v>0.85</v>
       </c>
       <c r="J23" s="9">
         <v>0.108</v>
@@ -3905,7 +4043,7 @@
         <v>1.2523</v>
       </c>
       <c r="M23" s="9">
-        <v>8.837999999999999</v>
+        <v>8.9001</v>
       </c>
       <c r="N23" s="9">
         <v>0.0018</v>
@@ -3943,7 +4081,7 @@
         <v>0.313</v>
       </c>
       <c r="I24" s="9">
-        <v>0.843</v>
+        <v>0.841</v>
       </c>
       <c r="J24" s="9">
         <v>0.0934</v>
@@ -3955,7 +4093,7 @@
         <v>2.0357</v>
       </c>
       <c r="M24" s="9">
-        <v>11.3588</v>
+        <v>11.2911</v>
       </c>
       <c r="N24" s="9">
         <v>0.0061</v>
@@ -3993,7 +4131,7 @@
         <v>0.098</v>
       </c>
       <c r="I25" s="1">
-        <v>0.839</v>
+        <v>0.835</v>
       </c>
       <c r="J25" s="1">
         <v>0.0587</v>
@@ -4005,7 +4143,7 @@
         <v>0.4618</v>
       </c>
       <c r="M25" s="1">
-        <v>6.4193</v>
+        <v>6.3105</v>
       </c>
       <c r="N25" s="1">
         <v>0.015</v>
@@ -4041,7 +4179,7 @@
         <v>0.317</v>
       </c>
       <c r="I26" s="1">
-        <v>0.853</v>
+        <v>0.843</v>
       </c>
       <c r="J26" s="1">
         <v>0.09420000000000001</v>
@@ -4053,7 +4191,7 @@
         <v>2.0647</v>
       </c>
       <c r="M26" s="1">
-        <v>11.5642</v>
+        <v>11.403</v>
       </c>
       <c r="N26" s="1">
         <v>0.0048</v>
@@ -4091,7 +4229,7 @@
         <v>0.321</v>
       </c>
       <c r="I27" s="1">
-        <v>0.844</v>
+        <v>0.836</v>
       </c>
       <c r="J27" s="1">
         <v>0.0945</v>
@@ -4103,7 +4241,7 @@
         <v>2.0779</v>
       </c>
       <c r="M27" s="1">
-        <v>11.2494</v>
+        <v>11.3736</v>
       </c>
       <c r="N27" s="1">
         <v>0.0056</v>
@@ -4133,7 +4271,7 @@
         <v>0.21</v>
       </c>
       <c r="I28" s="11">
-        <v>0.839</v>
+        <v>0.844</v>
       </c>
       <c r="J28" s="11">
         <v>0.1242</v>
@@ -4145,7 +4283,7 @@
         <v>1.7621</v>
       </c>
       <c r="M28" s="11">
-        <v>14.7399</v>
+        <v>14.8322</v>
       </c>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
@@ -4171,7 +4309,7 @@
         <v>0.078</v>
       </c>
       <c r="I29" s="11">
-        <v>0.833</v>
+        <v>0.841</v>
       </c>
       <c r="J29" s="11">
         <v>0.0525</v>
@@ -4183,7 +4321,7 @@
         <v>0.549</v>
       </c>
       <c r="M29" s="11">
-        <v>10.8191</v>
+        <v>10.7974</v>
       </c>
       <c r="N29" s="11">
         <v>0.0716</v>
@@ -4233,7 +4371,7 @@
         <v>1.2886</v>
       </c>
       <c r="M30" s="9">
-        <v>8.6487</v>
+        <v>8.523199999999999</v>
       </c>
       <c r="N30" s="9">
         <v>0.1523</v>
@@ -4271,7 +4409,7 @@
         <v>0.327</v>
       </c>
       <c r="I31" s="9">
-        <v>0.846</v>
+        <v>0.847</v>
       </c>
       <c r="J31" s="9">
         <v>0.09810000000000001</v>
@@ -4283,7 +4421,7 @@
         <v>2.0728</v>
       </c>
       <c r="M31" s="9">
-        <v>11.3081</v>
+        <v>11.2114</v>
       </c>
       <c r="N31" s="9">
         <v>0.2361</v>
@@ -4321,7 +4459,7 @@
         <v>0.244</v>
       </c>
       <c r="I32" s="9">
-        <v>0.857</v>
+        <v>0.855</v>
       </c>
       <c r="J32" s="9">
         <v>0.1013</v>
@@ -4333,7 +4471,7 @@
         <v>1.3287</v>
       </c>
       <c r="M32" s="9">
-        <v>9.316000000000001</v>
+        <v>9.213100000000001</v>
       </c>
       <c r="N32" s="9">
         <v>0.0009</v>
@@ -4371,7 +4509,7 @@
         <v>0.319</v>
       </c>
       <c r="I33" s="9">
-        <v>0.839</v>
+        <v>0.843</v>
       </c>
       <c r="J33" s="9">
         <v>0.09660000000000001</v>
@@ -4383,7 +4521,7 @@
         <v>2.0742</v>
       </c>
       <c r="M33" s="9">
-        <v>11.2989</v>
+        <v>11.335</v>
       </c>
       <c r="N33" s="9">
         <v>0.0031</v>
@@ -4421,7 +4559,7 @@
         <v>0.313</v>
       </c>
       <c r="I34" s="9">
-        <v>0.84</v>
+        <v>0.846</v>
       </c>
       <c r="J34" s="9">
         <v>0.0964</v>
@@ -4433,7 +4571,7 @@
         <v>2.0794</v>
       </c>
       <c r="M34" s="9">
-        <v>11.2929</v>
+        <v>11.3018</v>
       </c>
       <c r="N34" s="9">
         <v>0.0025</v>
@@ -4442,6 +4580,106 @@
         <v>0</v>
       </c>
       <c r="P34" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="9">
+        <v>20</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0.227</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0.228</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0.854</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0.113</v>
+      </c>
+      <c r="K35" s="9">
+        <v>1.2766</v>
+      </c>
+      <c r="L35" s="9">
+        <v>1.2771</v>
+      </c>
+      <c r="M35" s="9">
+        <v>9.295199999999999</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0.3166</v>
+      </c>
+      <c r="O35" s="9">
+        <v>0</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="9">
+        <v>20</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0.327</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0.327</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0.845</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0.09810000000000001</v>
+      </c>
+      <c r="K36" s="9">
+        <v>2.0717</v>
+      </c>
+      <c r="L36" s="9">
+        <v>2.0742</v>
+      </c>
+      <c r="M36" s="9">
+        <v>11.298</v>
+      </c>
+      <c r="N36" s="9">
+        <v>0.5372</v>
+      </c>
+      <c r="O36" s="9">
+        <v>0</v>
+      </c>
+      <c r="P36" s="9" t="s">
         <v>27</v>
       </c>
     </row>
